--- a/src/main/resources/kegelmeisterschaft/service/importer/2016/player/ZZ.xlsx
+++ b/src/main/resources/kegelmeisterschaft/service/importer/2016/player/ZZ.xlsx
@@ -55,7 +55,7 @@
     <t>Botermann</t>
   </si>
   <si>
-    <t>Michael</t>
+    <t>Karl</t>
   </si>
   <si>
     <t>Sonja</t>
@@ -137,11 +137,11 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/worksheetdrawing.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/worksheetdrawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
-<file path=xl/worksheets/sheet.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -173,7 +173,7 @@
         <v>6</v>
       </c>
       <c r="D2" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -187,7 +187,7 @@
         <v>8</v>
       </c>
       <c r="D3" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -257,7 +257,7 @@
         <v>6</v>
       </c>
       <c r="D8" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -271,7 +271,7 @@
         <v>8</v>
       </c>
       <c r="D9" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -285,7 +285,7 @@
         <v>6</v>
       </c>
       <c r="D10" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -299,7 +299,7 @@
         <v>8</v>
       </c>
       <c r="D11" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -313,7 +313,7 @@
         <v>6</v>
       </c>
       <c r="D12" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -327,7 +327,7 @@
         <v>8</v>
       </c>
       <c r="D13" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
